--- a/data/case1/13/Qlm2_14.xlsx
+++ b/data/case1/13/Qlm2_14.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.31608880295301844</v>
+        <v>-0.32703571387048669</v>
       </c>
       <c r="B1" s="0">
-        <v>0.31571423910189367</v>
+        <v>0.32666121046958807</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.19052761382158678</v>
+        <v>-0.2051753426779328</v>
       </c>
       <c r="B2" s="0">
-        <v>0.18993053481777089</v>
+        <v>0.20450361354225954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.11730751008675</v>
+        <v>-0.15479719613630039</v>
       </c>
       <c r="B3" s="0">
-        <v>0.11706172388645442</v>
+        <v>0.15444368530624608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10906172391234037</v>
+        <v>-0.14644368536363572</v>
       </c>
       <c r="B4" s="0">
-        <v>0.1084317753126669</v>
+        <v>0.14566787571483353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14146824411031478</v>
+        <v>-0.1426678757511084</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13890792617309966</v>
+        <v>0.13998682748191182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.039662209306461804</v>
+        <v>-0.040738420651523555</v>
       </c>
       <c r="B6" s="0">
-        <v>0.039284234342286339</v>
+        <v>0.040314636685835126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.029284234380575924</v>
+        <v>-0.030314636772692527</v>
       </c>
       <c r="B7" s="0">
-        <v>0.029199815668131901</v>
+        <v>0.030216873686327084</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019199815707253709</v>
+        <v>-0.020216873775021682</v>
       </c>
       <c r="B8" s="0">
-        <v>0.019071058710266264</v>
+        <v>0.020058221011908905</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.017071058730840694</v>
+        <v>-0.018058221061724833</v>
       </c>
       <c r="B9" s="0">
-        <v>0.016972312682806301</v>
+        <v>0.017933212265003107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.014972312704186308</v>
+        <v>-0.01593321231674949</v>
       </c>
       <c r="B10" s="0">
-        <v>0.014966549908935534</v>
+        <v>0.01592608728119238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.011966549932822979</v>
+        <v>-0.012926087338200887</v>
       </c>
       <c r="B11" s="0">
-        <v>0.011957828877715571</v>
+        <v>0.012914415902192111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0084578289029564324</v>
+        <v>-0.0094144159621416534</v>
       </c>
       <c r="B12" s="0">
-        <v>0.00840529770113152</v>
+        <v>0.0093368099443762453</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0049052977269488096</v>
+        <v>-0.0058368100057935024</v>
       </c>
       <c r="B13" s="0">
-        <v>0.004887855464432711</v>
+        <v>0.0058077073647471167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0031121444986990099</v>
+        <v>0.0021922925503936597</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0031137204032267718</v>
+        <v>-0.0021970452353414771</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0041137203834100688</v>
+        <v>-0.0080538607823887887</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0041142051365268273</v>
+        <v>0.0080350391820775968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060347381173406767</v>
+        <v>-0.006035039236616857</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060036743080842392</v>
+        <v>0.0060035683054908695</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040036743305904565</v>
+        <v>-0.0040035683608721229</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999725219837</v>
+        <v>0.0039999999341215897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.08787973027391871</v>
+        <v>-0.088631607072812812</v>
       </c>
       <c r="B18" s="0">
-        <v>0.087743529915918828</v>
+        <v>0.088499942654042485</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.083743529927120974</v>
+        <v>-0.084499942677639162</v>
       </c>
       <c r="B19" s="0">
-        <v>0.082725537023934592</v>
+        <v>0.083505602082860175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.078725537040273963</v>
+        <v>-0.064594089427773227</v>
       </c>
       <c r="B20" s="0">
-        <v>0.078422521032115</v>
+        <v>0.06430614269502577</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.004005870975649195</v>
+        <v>-0.0040058490143737302</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999822963872</v>
+        <v>0.0039999999622608584</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.068623024745543049</v>
+        <v>-0.045706417438184488</v>
       </c>
       <c r="B22" s="0">
-        <v>0.06827214383194935</v>
+        <v>0.045494741540949235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.063272143850093165</v>
+        <v>-0.040494741579833793</v>
       </c>
       <c r="B23" s="0">
-        <v>0.062583955342230269</v>
+        <v>0.040098178697327569</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099031982113935</v>
+        <v>-0.020098178816772005</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999942351465</v>
+        <v>0.019999999879015462</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097245716885119293</v>
+        <v>-0.097248406875225513</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097120545075396691</v>
+        <v>0.097123882855983723</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094620545095855491</v>
+        <v>-0.094623882904864232</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094459870658667455</v>
+        <v>0.094463479747988188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091959870680250244</v>
+        <v>-0.091963479799202386</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091011948344170257</v>
+        <v>0.091013154573710953</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089011948369229543</v>
+        <v>-0.089013154633355462</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088362846630260172</v>
+        <v>0.0883625315878378</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081362846670711697</v>
+        <v>-0.081362531680928107</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081174374056494081</v>
+        <v>0.081173891405348364</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021174374227503456</v>
+        <v>-0.021173891774512565</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021024656822503651</v>
+        <v>0.021023871987341458</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014024656865837315</v>
+        <v>-0.014023872086658784</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001593586229433</v>
+        <v>0.014001320725942179</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040015936370334515</v>
+        <v>-0.0040013208410378809</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999637050365</v>
+        <v>0.0039999999155817534</v>
       </c>
     </row>
   </sheetData>
